--- a/data_selection/result/地区生产总值-中山-解释变量v5-先行v5.xlsx
+++ b/data_selection/result/地区生产总值-中山-解释变量v5-先行v5.xlsx
@@ -833,77 +833,77 @@
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
+          <t>三次产业比重2+EX_ST_47_ZYJGZB</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>工业销售产值+EX_ST_55_ZYCS</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>股份制企业+EX_ST_55_ZYCS</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>按行业分-计算机、通信和其他电子设备制造业+EX_ST_54_HYZZJ</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
           <t>大型企业+EX_ST_55_ZYCS</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>房地产开发投资累计增长+EX_ST_33_GDZCTZ</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>出口产品交货值+EX_ST_55_ZYCS</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>旅客周转量+万人公里+EX_ST_58_JTYD</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>货运量+万吨+EX_ST_58_JTYD</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>按税种分-海关代征税+EX_ST_53_SS</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>重工业+EX_ST_55_ZYCS</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>按行业分-通用设备制造业+EX_ST_54_HYZZJ</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>按行业分-家具制造业+EX_ST_54_HYZZJ</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>工业用电累计增长+EX_ST_30_QSHYD</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>客运量累计增长+EX_ST_28_HYKYL</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>按行业分-计算机、通信和其他电子设备制造业+EX_ST_54_HYZZJ</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>按行业分-家具制造业+EX_ST_54_HYZZJ</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>按税种分-海关代征税+EX_ST_53_SS</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>房地产开发投资累计增长+EX_ST_33_GDZCTZ</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>货运量+万吨+EX_ST_58_JTYD</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>工业销售产值+EX_ST_55_ZYCS</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>按行业分-通用设备制造业+EX_ST_54_HYZZJ</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>股份制企业+EX_ST_55_ZYCS</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>工业用电累计增长+EX_ST_30_QSHYD</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>出口产品交货值+EX_ST_55_ZYCS</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>三次产业比重2+EX_ST_47_ZYJGZB</t>
         </is>
       </c>
     </row>
@@ -986,49 +986,49 @@
         <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AG2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AH2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AI2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AK2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AL2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AM2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AN2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1062,43 +1062,43 @@
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD3" t="n">
         <v>5.7</v>
       </c>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="n">
+      <c r="AE3" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AK3" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AN3" t="n">
         <v>-7.6510451869</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>-2.8</v>
-      </c>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>-1</v>
       </c>
     </row>
     <row r="4">
@@ -1140,43 +1140,43 @@
         <v>4.7205352247</v>
       </c>
       <c r="Z4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>5.0683544304</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>12.5734177215</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8.967088607599999</v>
+      </c>
+      <c r="AD4" t="n">
         <v>7.7</v>
       </c>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="n">
+      <c r="AE4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>2.4367088608</v>
+      </c>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="n">
         <v>9.5518987342</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AK4" t="n">
+        <v>9.4544303797</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-0.4103896104</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN4" t="n">
         <v>-11.6990174143</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>8.967088607599999</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>-0.4103896104</v>
-      </c>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="n">
-        <v>5.0683544304</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>9.4544303797</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>12.5734177215</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>2.4367088608</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>-1</v>
       </c>
     </row>
     <row r="5">
@@ -1238,43 +1238,43 @@
         <v>3.1346050444</v>
       </c>
       <c r="Z5" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="AD5" t="n">
         <v>6.4</v>
       </c>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="n">
+      <c r="AE5" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AK5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AN5" t="n">
         <v>-14.1839599278</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>-1.4</v>
       </c>
     </row>
     <row r="6">
@@ -1340,43 +1340,43 @@
         <v>2.2167797848</v>
       </c>
       <c r="Z6" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="AD6" t="n">
         <v>6.4</v>
       </c>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="n">
+      <c r="AE6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="n">
         <v>10.2</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AK6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AN6" t="n">
         <v>-15.6652951698</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>-2</v>
       </c>
     </row>
     <row r="7">
@@ -1448,49 +1448,49 @@
         <v>1.4363926504</v>
       </c>
       <c r="Z7" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>8.6392405063</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>7.7848101266</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="AD7" t="n">
         <v>9.2088607595</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AE7" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>9.018987341799999</v>
+      </c>
+      <c r="AG7" t="n">
         <v>80.8844571411</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>12.3417721519</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>-8.773415912799999</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>14.8292188028</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>25.1</v>
       </c>
       <c r="AH7" t="n">
         <v>-2.6497384051</v>
       </c>
       <c r="AI7" t="n">
-        <v>8.6392405063</v>
+        <v>14.8292188028</v>
       </c>
       <c r="AJ7" t="n">
+        <v>12.3417721519</v>
+      </c>
+      <c r="AK7" t="n">
         <v>5.9</v>
       </c>
-      <c r="AK7" t="n">
-        <v>7.7848101266</v>
-      </c>
       <c r="AL7" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AM7" t="n">
         <v>10.5104041462</v>
       </c>
-      <c r="AM7" t="n">
-        <v>9.018987341799999</v>
-      </c>
       <c r="AN7" t="n">
-        <v>-2</v>
+        <v>-8.773415912799999</v>
       </c>
     </row>
     <row r="8">
@@ -1568,49 +1568,49 @@
         <v>-2.6497384051</v>
       </c>
       <c r="Z8" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>8.7647160665</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="AD8" t="n">
         <v>8.959487534600001</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AE8" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="AG8" t="n">
         <v>50.0669719132</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>10.6150450139</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>-5.7143188624</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>19.7832077228</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>9.9</v>
       </c>
       <c r="AH8" t="n">
         <v>-4.2461807664</v>
       </c>
       <c r="AI8" t="n">
-        <v>9.4</v>
+        <v>19.7832077228</v>
       </c>
       <c r="AJ8" t="n">
+        <v>10.6150450139</v>
+      </c>
+      <c r="AK8" t="n">
         <v>15.7</v>
       </c>
-      <c r="AK8" t="n">
-        <v>8.7647160665</v>
-      </c>
       <c r="AL8" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AM8" t="n">
         <v>9.169067168</v>
       </c>
-      <c r="AM8" t="n">
-        <v>11.6</v>
-      </c>
       <c r="AN8" t="n">
-        <v>-0.8</v>
+        <v>-5.7143188624</v>
       </c>
     </row>
     <row r="9">
@@ -1692,49 +1692,49 @@
         <v>-4.2461807664</v>
       </c>
       <c r="Z9" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>8.8636363636</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD9" t="n">
         <v>9.155844155800001</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AE9" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="AG9" t="n">
         <v>32.692648683</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>9.9350649351</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>-6.284842209500001</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>21.8960462721</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>15.6</v>
       </c>
       <c r="AH9" t="n">
         <v>-5.6172136209</v>
       </c>
       <c r="AI9" t="n">
-        <v>9.699999999999999</v>
+        <v>21.8960462721</v>
       </c>
       <c r="AJ9" t="n">
+        <v>9.9350649351</v>
+      </c>
+      <c r="AK9" t="n">
         <v>12.2</v>
       </c>
-      <c r="AK9" t="n">
-        <v>8.8636363636</v>
-      </c>
       <c r="AL9" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AM9" t="n">
         <v>9.547923815900001</v>
       </c>
-      <c r="AM9" t="n">
-        <v>11.3</v>
-      </c>
       <c r="AN9" t="n">
-        <v>-0.1</v>
+        <v>-6.284842209500001</v>
       </c>
     </row>
     <row r="10">
@@ -1814,49 +1814,49 @@
         <v>-0.5225638672</v>
       </c>
       <c r="Z10" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="AD10" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AE10" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="AG10" t="n">
         <v>27.2761524028</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>-5.0701481705</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>18.9002899039</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>14.8</v>
       </c>
       <c r="AH10" t="n">
         <v>-3.7051569144</v>
       </c>
       <c r="AI10" t="n">
-        <v>6.3</v>
+        <v>18.9002899039</v>
       </c>
       <c r="AJ10" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AK10" t="n">
         <v>0.7</v>
       </c>
-      <c r="AK10" t="n">
-        <v>3</v>
-      </c>
       <c r="AL10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AM10" t="n">
         <v>7.9783130841</v>
       </c>
-      <c r="AM10" t="n">
-        <v>11.7</v>
-      </c>
       <c r="AN10" t="n">
-        <v>-2.8</v>
+        <v>-5.0701481705</v>
       </c>
     </row>
     <row r="11">
@@ -1936,49 +1936,49 @@
         <v>-3.7051569144</v>
       </c>
       <c r="Z11" t="n">
+        <v>-2.9</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD11" t="n">
         <v>2.1</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AE11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AG11" t="n">
         <v>-7.07074263633052</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>-28.3836578841</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>17.0061682946383</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>2.2</v>
       </c>
       <c r="AH11" t="n">
         <v>3.59218272308514</v>
       </c>
       <c r="AI11" t="n">
-        <v>3.5</v>
+        <v>17.0061682946383</v>
       </c>
       <c r="AJ11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AK11" t="n">
         <v>-10.6</v>
       </c>
-      <c r="AK11" t="n">
-        <v>2.6</v>
-      </c>
       <c r="AL11" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="AM11" t="n">
         <v>4.6758685801</v>
       </c>
-      <c r="AM11" t="n">
-        <v>2.6</v>
-      </c>
       <c r="AN11" t="n">
-        <v>-2.9</v>
+        <v>-28.3836578841</v>
       </c>
     </row>
     <row r="12">
@@ -2058,49 +2058,49 @@
         <v>3.5921827231</v>
       </c>
       <c r="Z12" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD12" t="n">
         <v>6.4</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AE12" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="AG12" t="n">
         <v>-9.488744137516241</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>-20.8291499104</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>7.489335770871429</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>13.9</v>
       </c>
       <c r="AH12" t="n">
         <v>-8.43635059795214</v>
       </c>
       <c r="AI12" t="n">
-        <v>4.5</v>
+        <v>7.489335770871429</v>
       </c>
       <c r="AJ12" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AK12" t="n">
         <v>-4.2</v>
       </c>
-      <c r="AK12" t="n">
-        <v>6.9</v>
-      </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="n">
         <v>6.2</v>
       </c>
-      <c r="AM12" t="n">
-        <v>-1.2</v>
-      </c>
       <c r="AN12" t="n">
-        <v>-2.7</v>
+        <v>-20.8291499104</v>
       </c>
     </row>
     <row r="13">
@@ -2180,49 +2180,49 @@
         <v>-8.436350597999999</v>
       </c>
       <c r="Z13" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AD13" t="n">
         <v>9.5</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AE13" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="AG13" t="n">
         <v>-5.974936745138461</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>-12.8627615874</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>10.6</v>
       </c>
       <c r="AH13" t="n">
         <v>-5.26390983515354</v>
       </c>
       <c r="AI13" t="n">
-        <v>2.9</v>
+        <v>-0.8</v>
       </c>
       <c r="AJ13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AK13" t="n">
         <v>-4.5</v>
       </c>
-      <c r="AK13" t="n">
-        <v>6.6</v>
-      </c>
       <c r="AL13" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AM13" t="n">
         <v>4.3068260112</v>
       </c>
-      <c r="AM13" t="n">
-        <v>-2.3</v>
-      </c>
       <c r="AN13" t="n">
-        <v>-1.3</v>
+        <v>-12.8627615874</v>
       </c>
     </row>
     <row r="14">
@@ -2304,49 +2304,49 @@
         <v>-5.2639098352</v>
       </c>
       <c r="Z14" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AD14" t="n">
         <v>8.1</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AE14" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AG14" t="n">
         <v>-4.21140809403143</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>3.46470588235294</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>-7.6477153773</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>-6.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>11.7</v>
       </c>
       <c r="AH14" t="n">
         <v>-5.756351703489321</v>
       </c>
       <c r="AI14" t="n">
-        <v>3.4</v>
+        <v>-6.5</v>
       </c>
       <c r="AJ14" t="n">
+        <v>3.46470588235294</v>
+      </c>
+      <c r="AK14" t="n">
         <v>2.1</v>
       </c>
-      <c r="AK14" t="n">
-        <v>6</v>
-      </c>
       <c r="AL14" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AM14" t="n">
         <v>4.130407895299999</v>
       </c>
-      <c r="AM14" t="n">
-        <v>0.3</v>
-      </c>
       <c r="AN14" t="n">
-        <v>-1.3</v>
+        <v>-7.6477153773</v>
       </c>
     </row>
     <row r="15">
@@ -2428,49 +2428,49 @@
         <v>-5.7563517035</v>
       </c>
       <c r="Z15" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>9.03529411764706</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>-3.67058823529412</v>
+      </c>
+      <c r="AD15" t="n">
         <v>-0.282352941176471</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AE15" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AG15" t="n">
         <v>-11.51828949233</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0.658823529411765</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>7.382565367200001</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>-3.67058823529412</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>9.694117647058821</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>2.30167941493155</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>9.9</v>
       </c>
       <c r="AH15" t="n">
         <v>-20.495581243508</v>
       </c>
       <c r="AI15" t="n">
-        <v>5.3</v>
+        <v>2.30167941493155</v>
       </c>
       <c r="AJ15" t="n">
+        <v>0.658823529411765</v>
+      </c>
+      <c r="AK15" t="n">
         <v>0.376470588235294</v>
       </c>
-      <c r="AK15" t="n">
-        <v>9.03529411764706</v>
-      </c>
       <c r="AL15" t="n">
+        <v>9.694117647058821</v>
+      </c>
+      <c r="AM15" t="n">
         <v>4.0103365511</v>
       </c>
-      <c r="AM15" t="n">
-        <v>0.6</v>
-      </c>
       <c r="AN15" t="n">
-        <v>-0.1</v>
+        <v>7.382565367200001</v>
       </c>
     </row>
     <row r="16">
@@ -2550,49 +2550,49 @@
         <v>-20.4955812435</v>
       </c>
       <c r="Z16" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>-3.44</v>
+      </c>
+      <c r="AD16" t="n">
         <v>-1.12</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AE16" t="n">
+        <v>-26.2</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AG16" t="n">
         <v>11.6248382802576</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>-2.08</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>19.210440437</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>-3.44</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>-1.44</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>-10.4930835081354</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>-26.2</v>
       </c>
       <c r="AH16" t="n">
         <v>-21.0865337903781</v>
       </c>
       <c r="AI16" t="n">
-        <v>-0.7</v>
+        <v>-10.4930835081354</v>
       </c>
       <c r="AJ16" t="n">
+        <v>-2.08</v>
+      </c>
+      <c r="AK16" t="n">
         <v>-4.64</v>
       </c>
-      <c r="AK16" t="n">
-        <v>-0.32</v>
-      </c>
       <c r="AL16" t="n">
+        <v>-1.44</v>
+      </c>
+      <c r="AM16" t="n">
         <v>1.6883986243</v>
       </c>
-      <c r="AM16" t="n">
-        <v>2.5</v>
-      </c>
       <c r="AN16" t="n">
-        <v>-1.4</v>
+        <v>19.210440437</v>
       </c>
     </row>
     <row r="17">
@@ -2674,49 +2674,49 @@
         <v>-21.0865337904</v>
       </c>
       <c r="Z17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="AD17" t="n">
         <v>0.5</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AE17" t="n">
+        <v>-23.1</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="AG17" t="n">
         <v>7.759521287068419</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>-1.8</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>13.22663156</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>-9.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>-11.7</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>-23.1</v>
       </c>
       <c r="AH17" t="n">
         <v>-27.5262454367667</v>
       </c>
       <c r="AI17" t="n">
-        <v>-0.2</v>
+        <v>-11.7</v>
       </c>
       <c r="AJ17" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="AK17" t="n">
         <v>-5.1</v>
       </c>
-      <c r="AK17" t="n">
-        <v>1.8</v>
-      </c>
       <c r="AL17" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="AM17" t="n">
         <v>2.3057043359</v>
       </c>
-      <c r="AM17" t="n">
-        <v>-0.1</v>
-      </c>
       <c r="AN17" t="n">
-        <v>-1</v>
+        <v>13.22663156</v>
       </c>
     </row>
     <row r="18">
@@ -2798,49 +2798,49 @@
         <v>-27.5262454368</v>
       </c>
       <c r="Z18" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>-11.9</v>
+      </c>
+      <c r="AD18" t="n">
         <v>-0.8</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AE18" t="n">
+        <v>-24.5</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="AG18" t="n">
         <v>1.38343653141632</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>-2.4</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>6.203615472999999</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>-11.9</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>-2.1</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>-9.4</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>-24.5</v>
       </c>
       <c r="AH18" t="n">
         <v>-30.7160699519731</v>
       </c>
       <c r="AI18" t="n">
-        <v>-0.5</v>
+        <v>-9.4</v>
       </c>
       <c r="AJ18" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="AK18" t="n">
         <v>-6.5</v>
       </c>
-      <c r="AK18" t="n">
-        <v>2.1</v>
-      </c>
       <c r="AL18" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="AM18" t="n">
         <v>3.2722226516</v>
       </c>
-      <c r="AM18" t="n">
-        <v>-3.2</v>
-      </c>
       <c r="AN18" t="n">
-        <v>-1.3</v>
+        <v>6.203615472999999</v>
       </c>
     </row>
     <row r="19">
@@ -2922,49 +2922,49 @@
         <v>-30.716069952</v>
       </c>
       <c r="Z19" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>-26.5</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>-25.4</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>-31.8</v>
+      </c>
+      <c r="AD19" t="n">
         <v>-22.4</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AE19" t="n">
+        <v>-41.6</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>-26.7</v>
+      </c>
+      <c r="AG19" t="n">
         <v>-40.3934390412544</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>-23.3</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>-47.48</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>-31.8</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>-39.4</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>-41.9</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>-41.6</v>
       </c>
       <c r="AH19" t="n">
         <v>-40.3194728030394</v>
       </c>
       <c r="AI19" t="n">
-        <v>-26.5</v>
+        <v>-41.9</v>
       </c>
       <c r="AJ19" t="n">
+        <v>-23.3</v>
+      </c>
+      <c r="AK19" t="n">
         <v>-30.8</v>
       </c>
-      <c r="AK19" t="n">
-        <v>-25.4</v>
-      </c>
       <c r="AL19" t="n">
+        <v>-39.4</v>
+      </c>
+      <c r="AM19" t="n">
         <v>-20.3815217801</v>
       </c>
-      <c r="AM19" t="n">
-        <v>-26.7</v>
-      </c>
       <c r="AN19" t="n">
-        <v>-5.5</v>
+        <v>-47.48</v>
       </c>
     </row>
     <row r="20">
@@ -3046,49 +3046,49 @@
         <v>-40.32</v>
       </c>
       <c r="Z20" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>-10.6</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>-6</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>-16.4</v>
+      </c>
+      <c r="AD20" t="n">
         <v>-9.1</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AE20" t="n">
+        <v>-21.1</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>-16.7</v>
+      </c>
+      <c r="AG20" t="n">
         <v>-58.9460494762267</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>-6.9</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>-61.7089078356</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>-16.4</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>-20.6</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>-22.8</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>-21.1</v>
       </c>
       <c r="AH20" t="n">
         <v>-34.4223148285766</v>
       </c>
       <c r="AI20" t="n">
-        <v>-10.6</v>
+        <v>-22.8</v>
       </c>
       <c r="AJ20" t="n">
+        <v>-6.9</v>
+      </c>
+      <c r="AK20" t="n">
         <v>-12.6</v>
       </c>
-      <c r="AK20" t="n">
-        <v>-6</v>
-      </c>
       <c r="AL20" t="n">
+        <v>-20.6</v>
+      </c>
+      <c r="AM20" t="n">
         <v>-7.6430295985</v>
       </c>
-      <c r="AM20" t="n">
-        <v>-16.7</v>
-      </c>
       <c r="AN20" t="n">
-        <v>-2.7</v>
+        <v>-61.7089078356</v>
       </c>
     </row>
     <row r="21">
@@ -3164,49 +3164,49 @@
         <v>-34.4223148286</v>
       </c>
       <c r="Z21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="AD21" t="n">
         <v>-2.2</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AE21" t="n">
+        <v>-12.3</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>-10.3</v>
+      </c>
+      <c r="AG21" t="n">
         <v>-64.0005030820746</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>-64.6853305156</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>-8.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>-11.8</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>-14.7</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>-12.3</v>
       </c>
       <c r="AH21" t="n">
         <v>-29.0594388897689</v>
       </c>
       <c r="AI21" t="n">
-        <v>-4</v>
+        <v>-14.7</v>
       </c>
       <c r="AJ21" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AK21" t="n">
         <v>-3.5</v>
       </c>
-      <c r="AK21" t="n">
-        <v>2.2</v>
-      </c>
       <c r="AL21" t="n">
+        <v>-11.8</v>
+      </c>
+      <c r="AM21" t="n">
         <v>-0.6550534889</v>
       </c>
-      <c r="AM21" t="n">
-        <v>-10.3</v>
-      </c>
       <c r="AN21" t="n">
-        <v>-1</v>
+        <v>-64.6853305156</v>
       </c>
     </row>
     <row r="22">
@@ -3282,49 +3282,49 @@
         <v>-29.0594388898</v>
       </c>
       <c r="Z22" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="AD22" t="n">
         <v>3.4</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AE22" t="n">
+        <v>-13.8</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="AG22" t="n">
         <v>-62.51452748640001</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>-62.51452748640001</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>-3.8</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>-0.9</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>-12.9</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>-13.8</v>
       </c>
       <c r="AH22" t="n">
         <v>-12.2080991666</v>
       </c>
       <c r="AI22" t="n">
-        <v>1.3</v>
+        <v>-12.9</v>
       </c>
       <c r="AJ22" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AK22" t="n">
         <v>2.2</v>
       </c>
-      <c r="AK22" t="n">
-        <v>7.9</v>
-      </c>
       <c r="AL22" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="AM22" t="n">
         <v>2.8210480834</v>
       </c>
-      <c r="AM22" t="n">
-        <v>-4.2</v>
-      </c>
       <c r="AN22" t="n">
-        <v>-0.4</v>
+        <v>-62.51452748640001</v>
       </c>
     </row>
     <row r="23">
